--- a/excelDE.xlsx
+++ b/excelDE.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="79">
   <si>
     <t>Bestellnummer:</t>
   </si>
@@ -328,6 +328,25 @@
   </si>
   <si>
     <t>Grat in Magnettasche</t>
+  </si>
+  <si>
+    <t>AS004</t>
+  </si>
+  <si>
+    <t>Yeong Hwa Metal Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Yeong Hwa Metal Co., Ltd.
+57, Namui-ro, Jinhae-gu, Changwong-si</t>
+  </si>
+  <si>
+    <t>TURBO-KAT</t>
+  </si>
+  <si>
+    <t>25196720</t>
+  </si>
+  <si>
+    <t>Grund nok</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -1737,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="7"/>
@@ -1777,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="41"/>
@@ -1797,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
@@ -1807,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="41"/>
@@ -1887,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="41"/>
